--- a/CodingPracticeLog.xlsx
+++ b/CodingPracticeLog.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8cf171e79f38ba97/Desktop/workspace/git/fabulous_feb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_F25DC773A252ABDACC10487D715868BC5BDE58E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7F822D3-E5B1-43D0-BF18-5BCC31FC9806}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_F25DC773A252ABDACC10487D715868BC5BDE58E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{668C42D5-AB7F-4585-A5BC-79BE3845399A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Platform</t>
   </si>
@@ -118,28 +118,89 @@
     return res</t>
   </si>
   <si>
-    <t xml:space="preserve">New </t>
-  </si>
-  <si>
-    <t>For example:</t>
-  </si>
-  <si>
-    <t>If the problem provides two numbers, like 123 and 45, you can assume that these numbers won't have any leading zeros.</t>
-  </si>
-  <si>
-    <t>If the numbers are 012 and 056, you should treat them as 12 and 56, considering leading zeros are not allowed, except for the number 0.</t>
-  </si>
-  <si>
-    <t>If one of the numbers is 001, it should be considered as just 1.</t>
-  </si>
-  <si>
-    <t>However, the exception is made for the number 0 itself, which is allowed to have leading zeros.</t>
-  </si>
-  <si>
-    <t>This information is provided to guide your understanding of the input format and to help you handle and process the numbers appropriately in your solution.</t>
-  </si>
-  <si>
     <t>The statement "You may assume the two numbers do not contain any leading zero, except the number 0 itself" means that when you are given two numbers in a problem or task, you can assume that neither of these numbers will have any leading zeros, except when the number is specifically 0 itself.    056 is 56 only</t>
+  </si>
+  <si>
+    <t>leetcode ,https://leetcode.com/problems/longest-substring-without-repeating-characters/submissions/1165060814/</t>
+  </si>
+  <si>
+    <t>Given a string s, find the length of the longest 
+substring
+ without repeating characters.
+Example 1:
+Input: s = "abcabcbb"
+Output: 3
+Explanation: The answer is "abc", with the length of 3.
+Example 2:
+Input: s = "bbbbb"
+Output: 1
+Explanation: The answer is "b", with the length of 1.
+Example 3:
+Input: s = "pwwkew"
+Output: 3
+Explanation: The answer is "wke", with the length of 3.
+Notice that the answer must be a substring, "pwke" is a subsequence and not a substring.</t>
+  </si>
+  <si>
+    <t>function findLongestSubstring(input):
+    length = length of input
+    left = 0
+    right = 0
+    longestSubstring = ""
+    uniqueCharacters = new HashSet()
+    while right &lt; length:
+        currentChar = input[right]
+        if currentChar not in uniqueCharacters:
+            uniqueCharacters.add(currentChar)
+            right++
+            currentSubstring = input[left:right]
+            if length of currentSubstring &gt; length of longestSubstring:
+                longestSubstring = currentSubstring
+        else:
+            uniqueCharacters.remove(input[left])
+            left++
+    return longestSubstring
+# Example usage:
+inputString = "abcabcbb"
+result = findLongestSubstring(inputString)
+print("Longest Substring:", result)</t>
+  </si>
+  <si>
+    <t>class Solution {
+    public int lengthOfLongestSubstring(String input) {
+        int length = input.length();
+        int left = 0, right = 0;
+        String longestSubstring = "";
+        HashSet&lt;Character&gt; uniqueCharacters = new HashSet&lt;&gt;();
+        while (right &lt; length) {
+            char currentChar = input.charAt(right);
+            if (!uniqueCharacters.contains(currentChar)) {
+                uniqueCharacters.add(currentChar);
+                right++;
+                String currentSubstring = input.substring(left, right);
+                if (currentSubstring.length() &gt; longestSubstring.length()) {
+                    longestSubstring = currentSubstring;
+                }
+            } else {
+                uniqueCharacters.remove(input.charAt(left));
+                left++;
+            }
+        }
+        return longestSubstring.length();
+    }
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Note </t>
+  </si>
+  <si>
+    <t>Today we learn about sliding window technique :
+We maintain a sliding window represented by the variables left and right. The window expands to the right as long as unique characters are encountered.
+The HashSet uniqueCharacters is used to keep track of the unique characters within the current window.
+If a character is not in the HashSet, it is added, and the right boundary of the window is moved to the right.
+If a character is already in the HashSet, it means a repeated character is found, and we shrink the window by moving the left boundary to the right.
+The process continues until we traverse the entire input string.
+This sliding window approach significantly reduces the time complexity, providing an efficient solution for finding the longest substring with unique characters in linear time.</t>
   </si>
 </sst>
 </file>
@@ -200,12 +261,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -215,27 +291,29 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -253,6 +331,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -521,124 +603,127 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="49" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="65.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="51.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.140625" customWidth="1"/>
+    <col min="1" max="1" width="110.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="60.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="255.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D3" s="2"/>
+    <row r="3" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="D4" s="2"/>
-      <c r="F4" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="D4" s="7"/>
+      <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D5" s="2"/>
-      <c r="F5" s="6"/>
+      <c r="D5" s="7"/>
     </row>
     <row r="6" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="D6" s="2"/>
-      <c r="F6" s="7" t="s">
-        <v>12</v>
-      </c>
+      <c r="D6" s="7"/>
+      <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="D7" s="2"/>
-      <c r="F7" s="7" t="s">
-        <v>13</v>
-      </c>
+      <c r="D7" s="7"/>
+      <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="D8" s="2"/>
-      <c r="F8" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="D8" s="7"/>
+      <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D9" s="2"/>
+      <c r="D9" s="7"/>
     </row>
     <row r="10" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="D10" s="2"/>
-      <c r="F10" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="D10" s="7"/>
+      <c r="F10" s="8"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D11" s="2"/>
+      <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="D12" s="2"/>
-      <c r="F12" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="D12" s="7"/>
+      <c r="F12" s="8"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D13" s="2"/>
+      <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D14" s="2"/>
+      <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D15" s="2"/>
+      <c r="D15" s="7"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D16" s="2"/>
+      <c r="D16" s="7"/>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D17" s="2"/>
+      <c r="D17" s="7"/>
     </row>
     <row r="18" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D18" s="2"/>
+      <c r="D18" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CodingPracticeLog.xlsx
+++ b/CodingPracticeLog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8cf171e79f38ba97/Desktop/workspace/git/fabulous_feb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_F25DC773A252ABDACC10487D715868BC5BDE58E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{668C42D5-AB7F-4585-A5BC-79BE3845399A}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_F25DC773A252ABDACC10487D715868BC5BDE58E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AB141725-0348-436C-A894-5E6FB9FCE70F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="28830" windowHeight="15630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>Platform</t>
   </si>
@@ -201,6 +201,107 @@
 If a character is already in the HashSet, it means a repeated character is found, and we shrink the window by moving the left boundary to the right.
 The process continues until we traverse the entire input string.
 This sliding window approach significantly reduces the time complexity, providing an efficient solution for finding the longest substring with unique characters in linear time.</t>
+  </si>
+  <si>
+    <t>leetcode , https://leetcode.com/problems/zigzag-conversion/submissions/1167906253/</t>
+  </si>
+  <si>
+    <t>The string "PAYPALISHIRING" is written in a zigzag pattern on a given number of rows like this: (you may want to display this pattern in a fixed font for better legibility)
+P   A   H   N
+A P L S I I G
+Y   I   R
+And then read line by line: "PAHNAPLSIIGYIR"
+Write the code that will take a string and make this conversion given a number of rows:
+string convert(string s, int numRows);
+Example 1:
+Input: s = "PAYPALISHIRING", numRows = 3
+Output: "PAHNAPLSIIGYIR"
+Example 2:
+Input: s = "PAYPALISHIRING", numRows = 4
+Output: "PINALSIGYAHRPI"
+Explanation:
+P     I    N
+A   L S  I G
+Y A   H R
+P     I
+Example 3:
+Input: s = "A", numRows = 1
+Output: "A"</t>
+  </si>
+  <si>
+    <t>class Solution {
+    public String convert(String s, int numRows) {
+        if(numRows==1 || numRows&gt;=s.length()){
+            return s;
+        }
+        StringBuilder[] row=new StringBuilder[numRows];
+        for(int i=0;i&lt;numRows;i++)
+        {
+            row[i]= new StringBuilder();
+        }
+        int currentRow = 0;
+        boolean goingDown = false;
+        for(char c:s.toCharArray()){
+            row[currentRow].append(c);
+            if(currentRow==0||currentRow==numRows-1){
+                goingDown=!goingDown ;
+            }
+            if (goingDown == true)
+                currentRow+=1;
+            else
+                currentRow+=-1;
+        }
+        StringBuilder outp = new StringBuilder();
+        for(int i=0;i&lt;row.length;i++){
+            outp.append(row[i]);
+        }
+    return outp.toString();
+    }
+}</t>
+  </si>
+  <si>
+    <t>learn how o brekdown a probplem at fir this problem was looking like this would required a 2d array but no this can be solved with single array you need learn how y can brekdown the probem ,outcome and the apprach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  public int reverse(int x) {
+        if(x&gt;0){
+            String k=Integer.toString(x);
+            // x.toString();
+             StringBuilder y = new StringBuilder(k).reverse();
+            x=Integer.parseInt(y.toString());
+        }
+        else
+        {   
+            x*=-1;
+            String k=""+x;
+            StringBuilder y= new StringBuilder(k).reverse();
+             x*=-1*Integer.parseInt(y.toString());          
+        }
+        return x;
+    }</t>
+  </si>
+  <si>
+    <t>public int reverse(int x) {
+    boolean isNegative = x &lt; 0;
+    x = Math.abs(x);
+    try {
+        String reversed = new StringBuilder(Integer.toString(x)).reverse().toString();
+        x = Integer.parseInt(reversed);
+        return isNegative ? -x : x;
+    } catch (NumberFormatException e) {
+        return 0; // Return 0 in case of integer overflow
+    }
+}</t>
+  </si>
+  <si>
+    <t>leetcode , https://leetcode.com/problems/reverse-integer/</t>
+  </si>
+  <si>
+    <t>Given a signed 32-bit integer x, return x with its digits reversed. If reversing x causes the value to go outside the signed 32-bit integer range [-231, 231 - 1], then return 0.
+Assume the environment does not allow you to store 64-bit integers (signed or unsigned).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Some boundry caases can be handled using try catch also </t>
   </si>
 </sst>
 </file>
@@ -334,6 +435,10 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -602,18 +707,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="110.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="63.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="60.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="255.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="2" customWidth="1"/>
+    <col min="2" max="6" width="50.7109375" style="2" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
@@ -637,7 +738,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="200.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -657,7 +758,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="200.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -674,14 +775,42 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="D4" s="7"/>
-      <c r="F4" s="8"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D5" s="7"/>
+    <row r="4" spans="1:6" ht="200.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="255" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B6" s="3"/>
       <c r="D6" s="7"/>
       <c r="F6" s="8"/>
     </row>
